--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96422302-C1BF-4E30-AA16-6D50B2776EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E972C-5232-4484-86FF-167C8344BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>名前</t>
   </si>
@@ -130,12 +130,20 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>https://hirashimatakumi.com/blog/4643.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://qiita.com/nogson/items/4099bdc7faa6ffe9ca5e</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +193,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -452,12 +469,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +544,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,14 +565,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -823,7 +856,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -834,14 +867,14 @@
     <col min="5" max="5" width="20.8984375" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" customWidth="1"/>
     <col min="7" max="7" width="59.69921875" customWidth="1"/>
-    <col min="8" max="8" width="32.8984375" customWidth="1"/>
+    <col min="8" max="9" width="56.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="22" t="s">
         <v>33</v>
       </c>
     </row>
@@ -849,10 +882,10 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,7 +900,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -876,54 +909,70 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="23">
         <v>45434</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="30">
+        <v>45444</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="11">
         <v>2</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="31">
+        <v>45444</v>
+      </c>
+      <c r="F6" s="32">
+        <v>45444</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="11">
         <v>3</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="31">
+        <v>45444</v>
+      </c>
+      <c r="F7" s="32">
+        <v>45444</v>
+      </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="11">
         <v>4</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="31">
+        <v>45444</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="29" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="11">
         <v>5</v>
       </c>
@@ -936,7 +985,7 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="11">
         <v>6</v>
       </c>
@@ -949,7 +998,7 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="25"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="11">
         <v>7</v>
       </c>
@@ -962,7 +1011,7 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="25"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="11">
         <v>8</v>
       </c>
@@ -975,7 +1024,7 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="11">
         <v>9</v>
       </c>
@@ -988,7 +1037,7 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="11">
         <v>10</v>
       </c>
@@ -1016,7 +1065,7 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="11">
@@ -1031,7 +1080,7 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="25"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="11">
         <v>17</v>
       </c>
@@ -1044,7 +1093,7 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="25"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="11">
         <v>18</v>
       </c>
@@ -1057,7 +1106,7 @@
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="25"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="11">
         <v>19</v>
       </c>
@@ -1070,7 +1119,7 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="25"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="11">
         <v>20</v>
       </c>
@@ -1083,7 +1132,7 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="25"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="11">
         <v>21</v>
       </c>
@@ -1096,7 +1145,7 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="25"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="11">
         <v>22</v>
       </c>
@@ -1109,7 +1158,7 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="25"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="11">
         <v>23</v>
       </c>
@@ -1122,7 +1171,7 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="11">
@@ -1137,7 +1186,7 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="25"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="11">
         <v>25</v>
       </c>
@@ -1150,7 +1199,7 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="25"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="11">
         <v>26</v>
       </c>
@@ -1163,7 +1212,7 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="11">
         <v>27</v>
       </c>
@@ -1176,7 +1225,7 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="25"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="11">
         <v>28</v>
       </c>
@@ -1189,7 +1238,7 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="26"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="17">
         <v>29</v>
       </c>
@@ -1209,6 +1258,10 @@
     <mergeCell ref="B24:B29"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{CA81C209-B187-4599-94A3-BB0F620A6712}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{7065F41E-A67F-4EA9-ABFA-0FF9569B461D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453E972C-5232-4484-86FF-167C8344BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7BC52-87F3-4924-B2BA-20DEEC83F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>名前</t>
   </si>
@@ -136,6 +136,61 @@
   </si>
   <si>
     <t>https://qiita.com/nogson/items/4099bdc7faa6ffe9ca5e</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フォームの仕組みが理解できました。</t>
+    <rPh sb="5" eb="7">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rowspan、colspanが便利だと思いました。</t>
+    <rPh sb="16" eb="18">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rand関数の使い方を理解しました。</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>細かくプログラムを分解して作る必要性を学びました。</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒツヨウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マナ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -143,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +257,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -477,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,9 +568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,6 +610,18 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,16 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +925,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -874,7 +943,7 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -882,10 +951,10 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,7 +969,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -909,346 +978,358 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>45434</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="24">
         <v>45444</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="27"/>
-      <c r="C6" s="11">
+      <c r="B6" s="30"/>
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="25">
         <v>45444</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="26">
         <v>45444</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="27"/>
-      <c r="C7" s="11">
+      <c r="B7" s="30"/>
+      <c r="C7" s="10">
         <v>3</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="25">
         <v>45444</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="26">
         <v>45444</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="27"/>
-      <c r="C8" s="11">
+      <c r="B8" s="30"/>
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="32">
         <v>45444</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="29" t="s">
+      <c r="F8" s="32">
+        <v>45448</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="27"/>
-      <c r="C9" s="11">
+      <c r="B9" s="30"/>
+      <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="32">
+        <v>45448</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="27"/>
-      <c r="C10" s="11">
+      <c r="B10" s="30"/>
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="27"/>
-      <c r="C11" s="11">
+      <c r="B11" s="30"/>
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="27"/>
-      <c r="C12" s="11">
+      <c r="B12" s="30"/>
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="27"/>
-      <c r="C13" s="11">
+      <c r="B13" s="30"/>
+      <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="27"/>
-      <c r="C14" s="11">
+      <c r="B14" s="30"/>
+      <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>16</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="27"/>
-      <c r="C17" s="11">
+      <c r="B17" s="30"/>
+      <c r="C17" s="10">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="27"/>
-      <c r="C18" s="11">
+      <c r="B18" s="30"/>
+      <c r="C18" s="10">
         <v>18</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="27"/>
-      <c r="C19" s="11">
+      <c r="B19" s="30"/>
+      <c r="C19" s="10">
         <v>19</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27"/>
-      <c r="C20" s="11">
+      <c r="B20" s="30"/>
+      <c r="C20" s="10">
         <v>20</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="27"/>
-      <c r="C21" s="11">
+      <c r="B21" s="30"/>
+      <c r="C21" s="10">
         <v>21</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="27"/>
-      <c r="C22" s="11">
+      <c r="B22" s="30"/>
+      <c r="C22" s="10">
         <v>22</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="27"/>
-      <c r="C23" s="11">
+      <c r="B23" s="30"/>
+      <c r="C23" s="10">
         <v>23</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>24</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="27"/>
-      <c r="C25" s="11">
+      <c r="B25" s="30"/>
+      <c r="C25" s="10">
         <v>25</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="27"/>
-      <c r="C26" s="11">
+      <c r="B26" s="30"/>
+      <c r="C26" s="10">
         <v>26</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="27"/>
-      <c r="C27" s="11">
+      <c r="B27" s="30"/>
+      <c r="C27" s="10">
         <v>27</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="27"/>
-      <c r="C28" s="11">
+      <c r="B28" s="30"/>
+      <c r="C28" s="10">
         <v>28</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="28"/>
-      <c r="C29" s="17">
+      <c r="B29" s="31"/>
+      <c r="C29" s="16">
         <v>29</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7BC52-87F3-4924-B2BA-20DEEC83F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38517C72-5694-47E3-9A4A-B6419E6D131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,56 +139,80 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>フォームの仕組みが理解できました。</t>
+    <t>フォームの構成を理解する事ができました。</t>
     <rPh sb="5" eb="7">
-      <t>シク</t>
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>rowspan、colspanを初めて使い、便利な事に気づきました。</t>
+    <rPh sb="16" eb="17">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>関数にまとめる事で簡単に呼び出して利用できる事を学びました。</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コト</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>リカイ</t>
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マナ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>rowspan、colspanが便利だと思いました。</t>
-    <rPh sb="16" eb="18">
-      <t>ベンリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>rand関数の使い方を理解しました。</t>
-    <rPh sb="4" eb="6">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リカイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>細かくプログラムを分解して作る必要性を学びました。</t>
-    <rPh sb="0" eb="1">
+    <t>１つ１つ細かくプログラムを分解して作る必要性を学びました。</t>
+    <rPh sb="4" eb="5">
       <t>コマ</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="13" eb="15">
       <t>ブンカイ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="17" eb="18">
       <t>ツク</t>
     </rPh>
-    <rPh sb="15" eb="18">
+    <rPh sb="19" eb="22">
       <t>ヒツヨウセイ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="23" eb="24">
       <t>マナ</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -622,6 +646,15 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,15 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,7 +949,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -951,10 +975,10 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -969,7 +993,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -984,13 +1008,13 @@
       <c r="F5" s="24">
         <v>45444</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="28" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -1003,13 +1027,13 @@
       <c r="F6" s="26">
         <v>45444</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="29" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10">
         <v>3</v>
       </c>
@@ -1022,7 +1046,7 @@
       <c r="F7" s="26">
         <v>45444</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -1030,20 +1054,18 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="10">
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>45444</v>
       </c>
-      <c r="F8" s="32">
-        <v>45448</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="23" t="s">
@@ -1051,22 +1073,20 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="30"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="10">
         <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="32">
-        <v>45448</v>
-      </c>
+      <c r="E9" s="27"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="10">
         <v>6</v>
       </c>
@@ -1079,7 +1099,7 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10">
         <v>7</v>
       </c>
@@ -1092,7 +1112,7 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="10">
         <v>8</v>
       </c>
@@ -1105,7 +1125,7 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="10">
         <v>9</v>
       </c>
@@ -1118,7 +1138,7 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="30"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="10">
         <v>10</v>
       </c>
@@ -1146,7 +1166,7 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10">
@@ -1161,7 +1181,7 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="10">
         <v>17</v>
       </c>
@@ -1174,7 +1194,7 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="10">
         <v>18</v>
       </c>
@@ -1187,7 +1207,7 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10">
         <v>19</v>
       </c>
@@ -1200,7 +1220,7 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="10">
         <v>20</v>
       </c>
@@ -1213,7 +1233,7 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="10">
         <v>21</v>
       </c>
@@ -1226,7 +1246,7 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="10">
         <v>22</v>
       </c>
@@ -1239,7 +1259,7 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="30"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="10">
         <v>23</v>
       </c>
@@ -1252,7 +1272,7 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="10">
@@ -1267,7 +1287,7 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="10">
         <v>25</v>
       </c>
@@ -1280,7 +1300,7 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="10">
         <v>26</v>
       </c>
@@ -1293,7 +1313,7 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="10">
         <v>27</v>
       </c>
@@ -1306,7 +1326,7 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="30"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="10">
         <v>28</v>
       </c>
@@ -1319,7 +1339,7 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="31"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="16">
         <v>29</v>
       </c>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38517C72-5694-47E3-9A4A-B6419E6D131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273E099-EFC8-435E-BCAA-71DF71C64BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="自動券売機イメージ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>名前</t>
   </si>
@@ -214,6 +215,247 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>cURLリクエスト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://qiita.com/4roro4/items/73d2b413ad0063848aa4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>工数(h)</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>可能であればマージソート、クイックソートなどアルゴリズムを用いて対応お願いします。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>難しい部分はありますので考えてわからない場合、回答を見てください。</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>4(半日)</t>
+    <rPh sb="2" eb="4">
+      <t>ハンニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8(1日)</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>40(5日)</t>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>32(4日)</t>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>56(7日)</t>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2週間</t>
+    <rPh sb="1" eb="3">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>自動券売機</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンバイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>160(14日)</t>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TOP画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>イメージは「自動券売機イメージ シート」参照願います！
+言語はphp,jsどちらでも問題ないです！
+基本的にはDBは用いずに対応頂けたらと思います！
+余裕そうなら、DBを用いて作り込んで頂いて問題ないです！</t>
+    <rPh sb="28" eb="30">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>タイオウイタダ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ざっくり作れば2週間で全て作成することは可能です。
+微調整込みでも3週間で目指して頂けたらと思います！
+※最遅期限が表と裏併せて1カ月で！</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ビチョウセイコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サイチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ゲツ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -222,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +531,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -316,7 +589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -555,6 +828,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,47 +958,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,6 +1049,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,6 +1076,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F844A1F-57B8-1D4F-4F45-AE848CA9E7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2748274" y="462643"/>
+          <a:ext cx="4585976" cy="4627067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57809</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>141504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A159BE-DD94-A7C0-A96D-2014E13DFA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6558642"/>
+          <a:ext cx="4721249" cy="5848613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92103</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>77008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FA36D0-54AF-B093-D89C-DF8D3D083C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="6477000"/>
+          <a:ext cx="4755543" cy="5860044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364705</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379294</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08CE3E6-3BF6-DBAF-04AE-DFF6A3F65C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2390932" y="5230730"/>
+          <a:ext cx="2716226" cy="1710817"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379294</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385662</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE2137F-0E25-42A0-8A4B-6768B747AE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5107158" y="5230730"/>
+          <a:ext cx="4058822" cy="1627270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -957,43 +1596,58 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="33.296875" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
-    <col min="7" max="7" width="59.69921875" customWidth="1"/>
-    <col min="8" max="9" width="56.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="8" max="8" width="59.69921875" customWidth="1"/>
+    <col min="9" max="9" width="56.59765625" customWidth="1"/>
+    <col min="10" max="10" width="84.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="1" t="s">
+    <row r="1" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2"/>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="2:10" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="32" t="s">
+      <c r="J4" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -1002,367 +1656,569 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="21">
         <v>45434</v>
       </c>
-      <c r="F5" s="24">
+      <c r="G5" s="23">
         <v>45444</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="33"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="45"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="24">
         <v>45444</v>
       </c>
-      <c r="F6" s="26">
+      <c r="G6" s="25">
         <v>45444</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="33"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="45"/>
       <c r="C7" s="10">
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="24">
         <v>45444</v>
       </c>
-      <c r="F7" s="26">
+      <c r="G7" s="25">
         <v>45444</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="33"/>
+      <c r="J7" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="45"/>
       <c r="C8" s="10">
         <v>4</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="26">
         <v>45444</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="25">
+        <v>45449</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33"/>
+      <c r="J8" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="45"/>
       <c r="C9" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
+      <c r="D9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="26">
+        <v>45449</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="45"/>
       <c r="C10" s="10">
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="45"/>
       <c r="C11" s="10">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33"/>
+        <v>13</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="45"/>
       <c r="C12" s="10">
         <v>8</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="45"/>
       <c r="C13" s="10">
         <v>9</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="45"/>
       <c r="C14" s="10">
         <v>10</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="45"/>
       <c r="C15" s="10">
         <v>11</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="10">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33" t="s">
+      <c r="E16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C18" s="10">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="45"/>
+      <c r="C19" s="10">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="48"/>
+    </row>
+    <row r="20" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="45"/>
+      <c r="C20" s="10">
         <v>16</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="45"/>
+      <c r="C21" s="10">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="45"/>
+      <c r="C22" s="10">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="45"/>
+      <c r="C23" s="10">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="24" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="45"/>
+      <c r="C24" s="10">
+        <v>20</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="45"/>
+      <c r="C25" s="10">
         <v>21</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
-      <c r="C17" s="10">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="33"/>
-      <c r="C18" s="10">
-        <v>18</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="D25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="48"/>
+    </row>
+    <row r="26" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10">
         <v>22</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="33"/>
-      <c r="C19" s="10">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="45"/>
+      <c r="C27" s="10">
         <v>23</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="33"/>
-      <c r="C20" s="10">
-        <v>20</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="D27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="45"/>
+      <c r="C28" s="10">
         <v>24</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="33"/>
-      <c r="C21" s="10">
-        <v>21</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="D28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="45"/>
+      <c r="C29" s="10">
         <v>25</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="33"/>
-      <c r="C22" s="10">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="D29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="48"/>
+    </row>
+    <row r="30" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="45"/>
+      <c r="C30" s="10">
         <v>26</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="33"/>
-      <c r="C23" s="10">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="D30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="48"/>
+    </row>
+    <row r="31" spans="2:10" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="46"/>
+      <c r="C31" s="40">
         <v>27</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="10">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="33"/>
-      <c r="C25" s="10">
-        <v>25</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="33"/>
-      <c r="C26" s="10">
-        <v>26</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="33"/>
-      <c r="C27" s="10">
-        <v>27</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="33"/>
-      <c r="C28" s="10">
-        <v>28</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="D31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="34"/>
-      <c r="C29" s="16">
-        <v>29</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19"/>
+      <c r="E31" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="J18:J31"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{CA81C209-B187-4599-94A3-BB0F620A6712}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{7065F41E-A67F-4EA9-ABFA-0FF9569B461D}"/>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{CA81C209-B187-4599-94A3-BB0F620A6712}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{7065F41E-A67F-4EA9-ABFA-0FF9569B461D}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{E8D0D6B3-F4E7-48BE-B66B-B135192DD737}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
+  <dimension ref="A2:K28"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="5:6" ht="39" x14ac:dyDescent="0.45">
+      <c r="E2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="28" spans="1:11" ht="39" x14ac:dyDescent="0.45">
+      <c r="A28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273E099-EFC8-435E-BCAA-71DF71C64BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDABE438-226C-4C7D-B761-32879CA085AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="-15390" windowWidth="27330" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>名前</t>
   </si>
@@ -457,6 +457,51 @@
     <rPh sb="66" eb="67">
       <t>ゲツ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>phpに組み込むことができるのが知れて面白かったです。</t>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オモシロ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>色んなアルゴリズムを使う事で作り方が沢山あることが知れました。</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html https://techis.jp/guide/php/func_array_reset https://qiita.com/sanogemaru/items/6312e44b6b6ee49240f3 https://www.php.net/manual/ja/function.array-map.php</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -909,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1104,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1766,8 +1814,12 @@
       <c r="F9" s="26">
         <v>45449</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="25">
+        <v>45450</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="I9" s="22" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="45"/>
       <c r="C10" s="10">
         <v>6</v>
@@ -1786,10 +1838,18 @@
       <c r="E10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="26">
+        <v>45453</v>
+      </c>
+      <c r="G10" s="25">
+        <v>45453</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>62</v>
+      </c>
       <c r="J10" s="37" t="s">
         <v>45</v>
       </c>
@@ -2188,9 +2248,10 @@
     <hyperlink ref="I7" r:id="rId1" xr:uid="{CA81C209-B187-4599-94A3-BB0F620A6712}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{7065F41E-A67F-4EA9-ABFA-0FF9569B461D}"/>
     <hyperlink ref="I9" r:id="rId3" xr:uid="{E8D0D6B3-F4E7-48BE-B66B-B135192DD737}"/>
+    <hyperlink ref="I10" r:id="rId4" display="http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html" xr:uid="{256EA7DB-8B1D-47F7-AC44-6E2607B67570}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDABE438-226C-4C7D-B761-32879CA085AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDE81F-202E-48CC-A7F7-8294D34992D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="-15390" windowWidth="27330" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html https://techis.jp/guide/php/func_array_reset https://qiita.com/sanogemaru/items/6312e44b6b6ee49240f3 https://www.php.net/manual/ja/function.array-map.php</t>
+    <t>http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html https://techis.jp/guide/php/func_array_reset https://qiita.com/sanogemaru/items/6312e44b6b6ee49240f3 https://www.php.net/manual/ja/function.array-map.php https://www.w3resource.com/php-exercises/searching-and-sorting-algorithm/searching-and-sorting-algorithm-exercise-17.php</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1081,6 +1081,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1636,7 +1636,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1671,10 +1671,10 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="30" t="s">
         <v>42</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="10">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="10">
         <v>4</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="10">
         <v>5</v>
       </c>
@@ -1827,8 +1827,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="61.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="45"/>
+    <row r="10" spans="2:10" ht="115.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="46"/>
       <c r="C10" s="10">
         <v>6</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="H10" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="42" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="37" t="s">
@@ -1855,7 +1855,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="10">
         <v>7</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="10">
         <v>8</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="10">
         <v>9</v>
       </c>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="10">
         <v>10</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="10">
         <v>11</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="10">
@@ -2008,12 +2008,12 @@
       <c r="G18" s="13"/>
       <c r="H18" s="15"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="48" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10">
         <v>15</v>
       </c>
@@ -2027,10 +2027,10 @@
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="48"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10">
         <v>16</v>
       </c>
@@ -2044,10 +2044,10 @@
       <c r="G20" s="13"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="48"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="10">
         <v>17</v>
       </c>
@@ -2061,10 +2061,10 @@
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="10">
         <v>18</v>
       </c>
@@ -2078,10 +2078,10 @@
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="10">
         <v>19</v>
       </c>
@@ -2095,10 +2095,10 @@
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="48"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="10">
         <v>20</v>
       </c>
@@ -2112,10 +2112,10 @@
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="48"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="10">
         <v>21</v>
       </c>
@@ -2129,10 +2129,10 @@
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="10">
@@ -2148,10 +2148,10 @@
       <c r="G26" s="13"/>
       <c r="H26" s="14"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="48"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="45"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="10">
         <v>23</v>
       </c>
@@ -2165,10 +2165,10 @@
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="48"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="10">
         <v>24</v>
       </c>
@@ -2182,10 +2182,10 @@
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="48"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="10">
         <v>25</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="G29" s="13"/>
       <c r="H29" s="14"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="10">
         <v>26</v>
       </c>
@@ -2216,10 +2216,10 @@
       <c r="G30" s="13"/>
       <c r="H30" s="14"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="48"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="2:10" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="40">
         <v>27</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDE81F-202E-48CC-A7F7-8294D34992D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AB149-8B04-4E79-A1C6-AF4B4FB727F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="-15390" windowWidth="27330" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1865,7 +1865,9 @@
       <c r="E11" s="33">
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="26">
+        <v>45456</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AB149-8B04-4E79-A1C6-AF4B4FB727F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE7CBA-AA48-4E8B-8FEB-0B13124B3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="-15390" windowWidth="27330" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>名前</t>
   </si>
@@ -502,6 +502,32 @@
   </si>
   <si>
     <t>http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html https://techis.jp/guide/php/func_array_reset https://qiita.com/sanogemaru/items/6312e44b6b6ee49240f3 https://www.php.net/manual/ja/function.array-map.php https://www.w3resource.com/php-exercises/searching-and-sorting-algorithm/searching-and-sorting-algorithm-exercise-17.php</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shknote.com/flowchart/ </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フローチャートで処理の流れを理解しながら書く事が出来ました。</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1636,7 +1662,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1869,8 +1895,12 @@
         <v>45456</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="J11" s="36" t="s">
         <v>43</v>
       </c>
@@ -2251,9 +2281,10 @@
     <hyperlink ref="I8" r:id="rId2" xr:uid="{7065F41E-A67F-4EA9-ABFA-0FF9569B461D}"/>
     <hyperlink ref="I9" r:id="rId3" xr:uid="{E8D0D6B3-F4E7-48BE-B66B-B135192DD737}"/>
     <hyperlink ref="I10" r:id="rId4" display="http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html" xr:uid="{256EA7DB-8B1D-47F7-AC44-6E2607B67570}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{A91B5777-917E-476B-9470-DD10F136EBD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE7CBA-AA48-4E8B-8FEB-0B13124B3548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73169DCD-6A72-4D80-A90E-BFBA44926AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="-15390" windowWidth="27330" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73169DCD-6A72-4D80-A90E-BFBA44926AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B262434-7FB0-48EB-A2D2-F60CB1D2FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1894,7 +1894,9 @@
       <c r="F11" s="26">
         <v>45456</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="25">
+        <v>45457</v>
+      </c>
       <c r="H11" s="28" t="s">
         <v>64</v>
       </c>
@@ -1916,7 +1918,9 @@
       <c r="E12" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="26">
+        <v>45457</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B262434-7FB0-48EB-A2D2-F60CB1D2FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30ABF2C-92DF-4A26-96B7-8ECF72DE651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>名前</t>
   </si>
@@ -527,6 +527,35 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://kekenta-it-blog.com/php-for-kuku/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>トレース表を知ってから、値の流れが分からなくなったら書くと理解ができました。</t>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1661,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1921,9 +1950,15 @@
       <c r="F12" s="26">
         <v>45457</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="25">
+        <v>45458</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="36" t="s">
         <v>46</v>
       </c>
@@ -1939,7 +1974,9 @@
       <c r="E13" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="26">
+        <v>45458</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
       <c r="I13" s="13"/>
@@ -2286,9 +2323,10 @@
     <hyperlink ref="I9" r:id="rId3" xr:uid="{E8D0D6B3-F4E7-48BE-B66B-B135192DD737}"/>
     <hyperlink ref="I10" r:id="rId4" display="http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html" xr:uid="{256EA7DB-8B1D-47F7-AC44-6E2607B67570}"/>
     <hyperlink ref="I11" r:id="rId5" xr:uid="{A91B5777-917E-476B-9470-DD10F136EBD1}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{ABEC5858-DB1E-4C2F-B0FD-79E9F6C6ACCE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30ABF2C-92DF-4A26-96B7-8ECF72DE651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA58D33-F19D-4D1F-A5B0-2DFEAD19AE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>名前</t>
   </si>
@@ -556,6 +556,38 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://techplay.jp/column/1776 https://phpspot.net/php/man/php/function.preg-split.html#google_vignette</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>とても難しいですが、配列操作の勉強になり、知らない関数を知る事ができました。</t>
+    <rPh sb="3" eb="4">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1690,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1978,8 +2010,12 @@
         <v>45458</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="J13" s="36" t="s">
         <v>43</v>
       </c>
@@ -2324,9 +2360,10 @@
     <hyperlink ref="I10" r:id="rId4" display="http://www2.otani.ac.jp/~yfukuda/php/hairetsu-array_shift.html" xr:uid="{256EA7DB-8B1D-47F7-AC44-6E2607B67570}"/>
     <hyperlink ref="I11" r:id="rId5" xr:uid="{A91B5777-917E-476B-9470-DD10F136EBD1}"/>
     <hyperlink ref="I12" r:id="rId6" xr:uid="{ABEC5858-DB1E-4C2F-B0FD-79E9F6C6ACCE}"/>
+    <hyperlink ref="I13" r:id="rId7" display="https://techplay.jp/column/1776" xr:uid="{31363404-1C45-43D1-B811-4035647D9C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA58D33-F19D-4D1F-A5B0-2DFEAD19AE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504BDFA9-651F-4B45-9416-DF8C3051CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,29 +564,29 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>とても難しいですが、配列操作の勉強になり、知らない関数を知る事ができました。</t>
+    <t>とても難しかったですが、配列操作の勉強になり、知らない関数を知る事ができました。</t>
     <rPh sb="3" eb="4">
       <t>ムズカ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="12" eb="14">
       <t>ハイレツ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="14" eb="16">
       <t>ソウサ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="17" eb="19">
       <t>ベンキョウ</t>
     </rPh>
-    <rPh sb="21" eb="22">
+    <rPh sb="23" eb="24">
       <t>シ</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="27" eb="29">
       <t>カンスウ</t>
     </rPh>
-    <rPh sb="28" eb="29">
+    <rPh sb="30" eb="31">
       <t>シ</t>
     </rPh>
-    <rPh sb="30" eb="31">
+    <rPh sb="32" eb="33">
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -1723,7 +1723,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2009,7 +2009,9 @@
       <c r="F13" s="26">
         <v>45458</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="25">
+        <v>45462</v>
+      </c>
       <c r="H13" s="28" t="s">
         <v>68</v>
       </c>
@@ -2031,7 +2033,9 @@
       <c r="E14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="26">
+        <v>45462</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504BDFA9-651F-4B45-9416-DF8C3051CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6694FA9-92B9-44E4-8EEA-7F0E203A5380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="自動券売機イメージ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>名前</t>
   </si>
@@ -588,6 +601,29 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://man.plustar.jp/php/function.cal-days-in-month.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>for文の便利さと新しいphpの関数を知りました。</t>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1722,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2036,11 +2072,18 @@
       <c r="F14" s="26">
         <v>45462</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="36" t="s">
-        <v>43</v>
+      <c r="G14" s="25">
+        <v>45463</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="36" t="e">
+        <f>-H14</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2054,7 +2097,9 @@
       <c r="E15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="26">
+        <v>45463</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
@@ -2365,9 +2410,10 @@
     <hyperlink ref="I11" r:id="rId5" xr:uid="{A91B5777-917E-476B-9470-DD10F136EBD1}"/>
     <hyperlink ref="I12" r:id="rId6" xr:uid="{ABEC5858-DB1E-4C2F-B0FD-79E9F6C6ACCE}"/>
     <hyperlink ref="I13" r:id="rId7" display="https://techplay.jp/column/1776" xr:uid="{31363404-1C45-43D1-B811-4035647D9C56}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{DA8715C4-29DD-4610-9A3A-F0D92F806255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2375,7 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6694FA9-92B9-44E4-8EEA-7F0E203A5380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4F9F9-BA5B-469C-B6AA-B7CB0DE6E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4F9F9-BA5B-469C-B6AA-B7CB0DE6E2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29521058-3355-4C62-B5D1-D818B54159C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>名前</t>
   </si>
@@ -624,6 +624,26 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://watsunblog.com/php-calender/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>forとforeachを使うことができ、配列を扱えるようにならないといけないと思いました。</t>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1758,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2100,9 +2120,15 @@
       <c r="F15" s="26">
         <v>45463</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="25">
+        <v>45468</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="J15" s="36" t="s">
         <v>43</v>
       </c>
@@ -2411,9 +2437,10 @@
     <hyperlink ref="I12" r:id="rId6" xr:uid="{ABEC5858-DB1E-4C2F-B0FD-79E9F6C6ACCE}"/>
     <hyperlink ref="I13" r:id="rId7" display="https://techplay.jp/column/1776" xr:uid="{31363404-1C45-43D1-B811-4035647D9C56}"/>
     <hyperlink ref="I14" r:id="rId8" xr:uid="{DA8715C4-29DD-4610-9A3A-F0D92F806255}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{D3F4054A-0293-4251-8B82-9AD606D7EFC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29521058-3355-4C62-B5D1-D818B54159C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A3E76-EEA8-4BD3-918A-43E509CDF2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>1週間</t>
   </si>
   <si>
-    <t>jQueryでの作り直し</t>
-  </si>
-  <si>
     <t>2週間</t>
   </si>
   <si>
@@ -645,6 +642,10 @@
     <rPh sb="39" eb="40">
       <t>オモ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>jQueryでの作り直し</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1778,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1804,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1819,7 +1820,7 @@
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -1834,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1848,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="21">
         <v>45434</v>
@@ -1857,11 +1858,11 @@
         <v>45444</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1873,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="24">
         <v>45444</v>
@@ -1882,11 +1883,11 @@
         <v>45444</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1898,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="24">
         <v>45444</v>
@@ -1907,13 +1908,13 @@
         <v>45444</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1925,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="26">
         <v>45444</v>
@@ -1934,13 +1935,13 @@
         <v>45449</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -1949,10 +1950,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="26">
         <v>45449</v>
@@ -1961,13 +1962,13 @@
         <v>45450</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="115.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -1979,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="26">
         <v>45453</v>
@@ -1988,13 +1989,13 @@
         <v>45453</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>62</v>
-      </c>
       <c r="J10" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2015,13 +2016,13 @@
         <v>45457</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2033,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="26">
         <v>45457</v>
@@ -2042,13 +2043,13 @@
         <v>45458</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2060,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="26">
         <v>45458</v>
@@ -2069,13 +2070,13 @@
         <v>45462</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2087,7 +2088,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="26">
         <v>45462</v>
@@ -2096,10 +2097,10 @@
         <v>45463</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="36" t="e">
         <f>-H14</f>
@@ -2115,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="26">
         <v>45463</v>
@@ -2124,13 +2125,13 @@
         <v>45468</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2140,60 +2141,62 @@
       <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
+      <c r="D16" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="F16" s="26">
+        <v>45468</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
       <c r="J16" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10">
         <v>13</v>
       </c>
       <c r="D17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
       <c r="I17" s="13"/>
       <c r="J17" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10">
         <v>14</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
       <c r="H18" s="15"/>
       <c r="I18" s="13"/>
       <c r="J18" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2202,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
@@ -2219,10 +2222,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
@@ -2236,10 +2239,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
@@ -2253,10 +2256,10 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
@@ -2270,10 +2273,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
@@ -2287,10 +2290,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="13"/>
@@ -2304,10 +2307,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
@@ -2317,16 +2320,16 @@
     </row>
     <row r="26" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="10">
         <v>22</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
@@ -2340,10 +2343,10 @@
         <v>23</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
@@ -2357,10 +2360,10 @@
         <v>24</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
@@ -2374,10 +2377,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
@@ -2391,10 +2394,10 @@
         <v>26</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
@@ -2408,10 +2411,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -2456,16 +2459,16 @@
   <sheetData>
     <row r="2" spans="5:6" ht="39" x14ac:dyDescent="0.45">
       <c r="E2" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="39"/>
     </row>
     <row r="28" spans="1:11" ht="39" x14ac:dyDescent="0.45">
       <c r="A28" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A3E76-EEA8-4BD3-918A-43E509CDF2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6C8D6-D6F6-4A8A-B648-D63BD224925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6C8D6-D6F6-4A8A-B648-D63BD224925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD36280-7466-4C49-B9B4-EF9823D4EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20244" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>名前</t>
   </si>
@@ -646,6 +646,23 @@
   </si>
   <si>
     <t>jQueryでの作り直し</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/44165</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ライブラリの便利さを知る事ができました。</t>
+    <rPh sb="6" eb="8">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1780,7 +1797,7 @@
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2151,8 +2168,12 @@
         <v>45468</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>73</v>
+      </c>
       <c r="J16" s="36" t="s">
         <v>42</v>
       </c>
@@ -2441,9 +2462,10 @@
     <hyperlink ref="I13" r:id="rId7" display="https://techplay.jp/column/1776" xr:uid="{31363404-1C45-43D1-B811-4035647D9C56}"/>
     <hyperlink ref="I14" r:id="rId8" xr:uid="{DA8715C4-29DD-4610-9A3A-F0D92F806255}"/>
     <hyperlink ref="I15" r:id="rId9" xr:uid="{D3F4054A-0293-4251-8B82-9AD606D7EFC4}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{39937ED7-F6F1-41AC-83C5-B9C92F67ECF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD36280-7466-4C49-B9B4-EF9823D4EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC358213-242A-4BB2-B3CC-DEF54BF5A501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20244" windowHeight="11664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="-15390" windowWidth="20250" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2167,7 +2167,9 @@
       <c r="F16" s="26">
         <v>45468</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="25">
+        <v>45470</v>
+      </c>
       <c r="H16" s="28" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC358213-242A-4BB2-B3CC-DEF54BF5A501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986545D-A69E-40A2-9197-9692AD59B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="-15390" windowWidth="20250" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="228" windowWidth="22356" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2193,7 +2193,9 @@
       <c r="E17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="26">
+        <v>45474</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
       <c r="I17" s="13"/>
@@ -2475,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986545D-A69E-40A2-9197-9692AD59B04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1AAC8-CF1D-4A15-8016-381906BE4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="228" windowWidth="22356" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13668" yWindow="132" windowWidth="9372" windowHeight="12108" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>名前</t>
   </si>
@@ -663,6 +663,10 @@
     <rPh sb="12" eb="13">
       <t>コト</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://qiita.com/hukuryo/items/8945d484aeba6ccc6f2b</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1336,13 +1340,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>41564</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57809</xdr:colOff>
+      <xdr:colOff>99373</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>141504</xdr:rowOff>
     </xdr:to>
@@ -1367,8 +1371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6558642"/>
-          <a:ext cx="4721249" cy="5848613"/>
+          <a:off x="41564" y="7202878"/>
+          <a:ext cx="4712936" cy="5948044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1380,15 +1384,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>484908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>92103</xdr:colOff>
+      <xdr:colOff>133667</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>77008</xdr:rowOff>
+      <xdr:rowOff>63153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,8 +1415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="6477000"/>
-          <a:ext cx="4755543" cy="5860044"/>
+          <a:off x="6691746" y="7107381"/>
+          <a:ext cx="4747230" cy="5965190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,15 +1428,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>364705</xdr:colOff>
+      <xdr:colOff>402977</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>379294</xdr:colOff>
+      <xdr:colOff>373147</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>83547</xdr:rowOff>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1450,8 +1454,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2390932" y="5230730"/>
-          <a:ext cx="2716226" cy="1710817"/>
+          <a:off x="2398032" y="5445475"/>
+          <a:ext cx="2630242" cy="1757403"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1480,15 +1484,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>379294</xdr:colOff>
+      <xdr:colOff>373147</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>385662</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>420125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>484908</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1506,8 +1510,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5107158" y="5230730"/>
-          <a:ext cx="4058822" cy="1627270"/>
+          <a:off x="5028274" y="5445475"/>
+          <a:ext cx="4037087" cy="1661906"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1796,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2198,7 +2202,9 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="J17" s="37" t="s">
         <v>57</v>
       </c>
@@ -2467,9 +2473,10 @@
     <hyperlink ref="I14" r:id="rId8" xr:uid="{DA8715C4-29DD-4610-9A3A-F0D92F806255}"/>
     <hyperlink ref="I15" r:id="rId9" xr:uid="{D3F4054A-0293-4251-8B82-9AD606D7EFC4}"/>
     <hyperlink ref="I16" r:id="rId10" xr:uid="{39937ED7-F6F1-41AC-83C5-B9C92F67ECF6}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{B02C29FC-CBB6-4D00-B0D7-7528F966E3B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2477,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1AAC8-CF1D-4A15-8016-381906BE4055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26674FC6-B0F1-4DF3-8906-C6A7FED38296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13668" yWindow="132" windowWidth="9372" windowHeight="12108" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="132" windowWidth="22524" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1800,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2200,7 +2200,9 @@
       <c r="F17" s="26">
         <v>45474</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="26">
+        <v>45474</v>
+      </c>
       <c r="H17" s="15"/>
       <c r="I17" s="22" t="s">
         <v>75</v>
@@ -2484,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA70C77E-31F3-4107-B5B7-9353B520DF84}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>

--- a/研修記録.xlsx
+++ b/研修記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPOS#195\Desktop\新人研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26674FC6-B0F1-4DF3-8906-C6A7FED38296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BFC1A-600F-447F-B30B-81F8F5EA4221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="516" yWindow="132" windowWidth="22524" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>名前</t>
   </si>
@@ -669,12 +669,28 @@
     <t>https://qiita.com/hukuryo/items/8945d484aeba6ccc6f2b</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>jsの知らない関数を沢山知ることができました。</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +788,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1119,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1800,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2203,7 +2230,9 @@
       <c r="G17" s="26">
         <v>45474</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="51" t="s">
+        <v>76</v>
+      </c>
       <c r="I17" s="22" t="s">
         <v>75</v>
       </c>
